--- a/Resources/2007/Advanced_Percentile_2007.xlsx
+++ b/Resources/2007/Advanced_Percentile_2007.xlsx
@@ -1444,7 +1444,7 @@
     <t>Tim Duncan</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Carlos Boozer</t>
@@ -1453,7 +1453,7 @@
     <t>Amar'e Stoudemire</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Pau Gasol</t>
@@ -1504,7 +1504,7 @@
     <t>Ben Gordon</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Jason Terry</t>
@@ -1531,7 +1531,7 @@
     <t>Mehmet Okur</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Chris Paul</t>
@@ -1549,7 +1549,7 @@
     <t>Andre Iguodala</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Joe Johnson</t>
@@ -1570,7 +1570,7 @@
     <t>Al Jefferson</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Emeka Okafor</t>
@@ -1588,7 +1588,7 @@
     <t>David West</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Brandon Roy</t>
@@ -1627,7 +1627,7 @@
     <t>Paul Millsap</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Chucky Atkins</t>
@@ -1726,7 +1726,7 @@
     <t>Marcus Camby</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Dajuan Wagner</t>
@@ -1834,7 +1834,7 @@
     <t>Mike Dunleavy</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Ronnie Brewer</t>
@@ -2698,7 +2698,7 @@
     <t>David Wesley</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Chris McCray</t>
